--- a/Planning/KW3.xlsx
+++ b/Planning/KW3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\18_19\SYP\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9139D9CF-371F-462A-81D6-233A0632118A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB33D91-B62E-40BB-A695-92FEB8785F26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{754BBE5A-440E-49BA-984D-71DA240BE7FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Task</t>
   </si>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +499,12 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>

--- a/Planning/KW3.xlsx
+++ b/Planning/KW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB33D91-B62E-40BB-A695-92FEB8785F26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41645C0-8D66-4ED4-B00C-AD77D2DB33C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{754BBE5A-440E-49BA-984D-71DA240BE7FE}"/>
   </bookViews>

--- a/Planning/KW3.xlsx
+++ b/Planning/KW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41645C0-8D66-4ED4-B00C-AD77D2DB33C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3C29E2-A8E6-4412-90AE-A7ED3851BFAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{754BBE5A-440E-49BA-984D-71DA240BE7FE}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Planning/KW3.xlsx
+++ b/Planning/KW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3C29E2-A8E6-4412-90AE-A7ED3851BFAC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D2259-4DA9-4E3B-85E1-39722933750F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{754BBE5A-440E-49BA-984D-71DA240BE7FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Strutzenberger, Trinkl, Tischler</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -430,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,6 +469,12 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
@@ -476,6 +485,12 @@
       </c>
       <c r="B3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>

--- a/Planning/KW3.xlsx
+++ b/Planning/KW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D2259-4DA9-4E3B-85E1-39722933750F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7576AB-CDB2-4217-9161-29614B3D1CEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{754BBE5A-440E-49BA-984D-71DA240BE7FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,6 +503,12 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>

--- a/Planning/KW3.xlsx
+++ b/Planning/KW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7576AB-CDB2-4217-9161-29614B3D1CEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C194C070-5B66-4460-B575-85B06C43B6F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{754BBE5A-440E-49BA-984D-71DA240BE7FE}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,7 +507,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>

--- a/Planning/KW3.xlsx
+++ b/Planning/KW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C194C070-5B66-4460-B575-85B06C43B6F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4882509C-058B-4C46-99A2-58EDC361799D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{754BBE5A-440E-49BA-984D-71DA240BE7FE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,11 +503,14 @@
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>

--- a/Planning/KW3.xlsx
+++ b/Planning/KW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\project-proposal-die_gottlichen_socken\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4882509C-058B-4C46-99A2-58EDC361799D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFAD46D-7095-4C94-A094-F631AEBE2D97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{754BBE5A-440E-49BA-984D-71DA240BE7FE}"/>
   </bookViews>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
